--- a/testData/UpcomingBikes.xlsx
+++ b/testData/UpcomingBikes.xlsx
@@ -6,14 +6,17 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Royal Enfield" r:id="rId3" sheetId="1"/>
-    <sheet name="Hero Moto Corp" r:id="rId4" sheetId="2"/>
+    <sheet name="Royal Enfield" r:id="rId5" sheetId="3"/>
+    <sheet name="Yamaha" r:id="rId6" sheetId="4"/>
+    <sheet name="TVS" r:id="rId7" sheetId="5"/>
+    <sheet name="Bajaj" r:id="rId8" sheetId="6"/>
+    <sheet name="Hero Moto Corp" r:id="rId9" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="67">
   <si>
     <t>TimeStamp</t>
   </si>
@@ -112,6 +115,108 @@
   </si>
   <si>
     <t>Feb 14, 2026 15:41:00</t>
+  </si>
+  <si>
+    <t>Feb 16, 2026 09:31:29</t>
+  </si>
+  <si>
+    <t>Feb 16, 2026 09:32:10</t>
+  </si>
+  <si>
+    <t>Yamaha AEROX-E</t>
+  </si>
+  <si>
+    <t>290000</t>
+  </si>
+  <si>
+    <t>2026 Yamaha MT-03</t>
+  </si>
+  <si>
+    <t>360000</t>
+  </si>
+  <si>
+    <t>Jun 2026</t>
+  </si>
+  <si>
+    <t>Yamaha NMax 155</t>
+  </si>
+  <si>
+    <t>140000</t>
+  </si>
+  <si>
+    <t>2026 Yamaha R3</t>
+  </si>
+  <si>
+    <t>370000</t>
+  </si>
+  <si>
+    <t>Yamaha WR155 R</t>
+  </si>
+  <si>
+    <t>170000</t>
+  </si>
+  <si>
+    <t>Yamaha RX 100</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>Dec 2026</t>
+  </si>
+  <si>
+    <t>Yamaha Electric Scooter</t>
+  </si>
+  <si>
+    <t>160000</t>
+  </si>
+  <si>
+    <t>Yamaha YZF-R2</t>
+  </si>
+  <si>
+    <t>215000</t>
+  </si>
+  <si>
+    <t>Dec 2027</t>
+  </si>
+  <si>
+    <t>Feb 16, 2026 09:32:34</t>
+  </si>
+  <si>
+    <t>TVS Electric Bike</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Oct 2026</t>
+  </si>
+  <si>
+    <t>Feb 16, 2026 09:32:57</t>
+  </si>
+  <si>
+    <t>2026 Bajaj Pulsar</t>
+  </si>
+  <si>
+    <t>95000</t>
+  </si>
+  <si>
+    <t>Bajaj Platina 125</t>
+  </si>
+  <si>
+    <t>80000</t>
+  </si>
+  <si>
+    <t>Bajaj Pulsar NS150</t>
+  </si>
+  <si>
+    <t>122000</t>
+  </si>
+  <si>
+    <t>Bajaj Adventure</t>
+  </si>
+  <si>
+    <t>Feb 16, 2026 09:33:52</t>
   </si>
 </sst>
 </file>
@@ -119,13 +224,38 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="10">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -181,21 +311,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
@@ -206,22 +341,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
+      <c r="A1" t="s" s="5">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>5</v>
@@ -235,7 +370,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>8</v>
@@ -249,7 +384,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>11</v>
@@ -263,7 +398,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>14</v>
@@ -277,7 +412,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>17</v>
@@ -291,7 +426,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>19</v>
@@ -308,7 +443,288 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.8984375"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.58203125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.7265625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.375"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="6">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="6">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.8984375"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.703125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="5.578125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.375"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="7">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="7">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="7">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.8984375"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.64453125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.7265625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.375"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="8">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="8">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -323,22 +739,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="4">
+      <c r="A1" t="s" s="9">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="9">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="9">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>24</v>
@@ -352,7 +768,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>25</v>
@@ -366,7 +782,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>26</v>
@@ -380,7 +796,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>29</v>

--- a/testData/UpcomingBikes.xlsx
+++ b/testData/UpcomingBikes.xlsx
@@ -6,17 +6,17 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Royal Enfield" r:id="rId5" sheetId="3"/>
-    <sheet name="Yamaha" r:id="rId6" sheetId="4"/>
-    <sheet name="TVS" r:id="rId7" sheetId="5"/>
-    <sheet name="Bajaj" r:id="rId8" sheetId="6"/>
-    <sheet name="Hero Moto Corp" r:id="rId9" sheetId="7"/>
+    <sheet name="Royal Enfield" r:id="rId10" sheetId="13"/>
+    <sheet name="Yamaha" r:id="rId11" sheetId="14"/>
+    <sheet name="TVS" r:id="rId7" sheetId="15"/>
+    <sheet name="Bajaj" r:id="rId8" sheetId="16"/>
+    <sheet name="Hero Moto Corp" r:id="rId9" sheetId="17"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="78">
   <si>
     <t>TimeStamp</t>
   </si>
@@ -217,6 +217,39 @@
   </si>
   <si>
     <t>Feb 16, 2026 09:33:52</t>
+  </si>
+  <si>
+    <t>Feb 16, 2026 10:01:57</t>
+  </si>
+  <si>
+    <t>Feb 16, 2026 12:14:02</t>
+  </si>
+  <si>
+    <t>Feb 16, 2026 12:14:22</t>
+  </si>
+  <si>
+    <t>Feb 16, 2026 12:14:39</t>
+  </si>
+  <si>
+    <t>Feb 16, 2026 12:15:01</t>
+  </si>
+  <si>
+    <t>Feb 16, 2026 12:15:19</t>
+  </si>
+  <si>
+    <t>Feb 16, 2026 12:26:50</t>
+  </si>
+  <si>
+    <t>Feb 16, 2026 12:27:11</t>
+  </si>
+  <si>
+    <t>Feb 16, 2026 12:27:28</t>
+  </si>
+  <si>
+    <t>Feb 16, 2026 12:27:43</t>
+  </si>
+  <si>
+    <t>Feb 16, 2026 12:27:59</t>
   </si>
 </sst>
 </file>
@@ -224,13 +257,68 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="10">
+  <fonts count="21">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -311,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
@@ -322,11 +410,22 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -341,22 +440,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="5">
+      <c r="A1" t="s" s="16">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="5">
+      <c r="B1" t="s" s="16">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="5">
+      <c r="C1" t="s" s="16">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="5">
+      <c r="D1" t="s" s="16">
         <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>5</v>
@@ -370,7 +469,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>8</v>
@@ -384,7 +483,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>11</v>
@@ -398,7 +497,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>14</v>
@@ -412,7 +511,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>17</v>
@@ -426,7 +525,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>19</v>
@@ -443,7 +542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -458,22 +557,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="6">
+      <c r="A1" t="s" s="17">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="6">
+      <c r="B1" t="s" s="17">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="6">
+      <c r="C1" t="s" s="17">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="6">
+      <c r="D1" t="s" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>35</v>
@@ -487,7 +586,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>37</v>
@@ -501,7 +600,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>40</v>
@@ -515,7 +614,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>42</v>
@@ -529,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>44</v>
@@ -543,7 +642,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>46</v>
@@ -557,7 +656,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>49</v>
@@ -571,7 +670,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>51</v>
@@ -588,7 +687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -603,22 +702,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="7">
+      <c r="A1" t="s" s="18">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="7">
+      <c r="B1" t="s" s="18">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="7">
+      <c r="C1" t="s" s="18">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="7">
+      <c r="D1" t="s" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>55</v>
@@ -635,7 +734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -650,22 +749,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="8">
+      <c r="A1" t="s" s="19">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="8">
+      <c r="B1" t="s" s="19">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="8">
+      <c r="C1" t="s" s="19">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="8">
+      <c r="D1" t="s" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>59</v>
@@ -679,7 +778,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>61</v>
@@ -693,7 +792,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>63</v>
@@ -707,7 +806,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>65</v>
@@ -724,7 +823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -739,22 +838,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="9">
+      <c r="A1" t="s" s="20">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="9">
+      <c r="B1" t="s" s="20">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="9">
+      <c r="C1" t="s" s="20">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="9">
+      <c r="D1" t="s" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>24</v>
@@ -768,7 +867,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>25</v>
@@ -782,7 +881,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>26</v>
@@ -796,7 +895,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>29</v>
